--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFA60FE-64C7-4A8B-9C7B-75EEDD282907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFE3EE-6ED1-40D9-817A-E65E20FC1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5990" yWindow="140" windowWidth="13210" windowHeight="9810" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="700" windowWidth="13210" windowHeight="9810" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="220">
   <si>
     <t>User</t>
   </si>
@@ -732,18 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南投縣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南投市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三和里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,14 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>選2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次抗體效價</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,10 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>選4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>檢驗方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,7 +796,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>選5</t>
+    <t>CHECK_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIALIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_ANTIBODY_TITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次檢驗方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次檢驗方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_TEST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_TEST_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECOND_ANTIBODY_TITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECOND_TEST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECOND_TEST_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANTIBODY_TITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REASON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰化縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀水鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀水村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢驗資料:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢驗資料:3
+輸入數字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢驗資料:3
+以現在日期+-N日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢驗資料:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢驗資料:4
+輸入數字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢驗資料:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢驗資料:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,8 +1317,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:BZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1382,37 +1457,37 @@
         <v>55</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>29</v>
@@ -1588,37 +1663,37 @@
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>40</v>
@@ -1803,17 +1878,39 @@
       <c r="X3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
+      <c r="Y3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="AJ3" s="4" t="s">
         <v>50</v>
       </c>
@@ -1956,10 +2053,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>45</v>
@@ -1980,10 +2077,10 @@
         <v>54321</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="O4" s="4" t="b">
         <v>0</v>
@@ -2005,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>163</v>
@@ -2013,17 +2110,39 @@
       <c r="X4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="AJ4" s="4" t="b">
         <v>1</v>
       </c>
@@ -2037,7 +2156,7 @@
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AS4" s="4">
         <v>-28</v>
@@ -2046,8 +2165,12 @@
         <v>-26</v>
       </c>
       <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
+      <c r="AV4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>1</v>
+      </c>
       <c r="AX4" s="4" t="b">
         <v>1</v>
       </c>
@@ -2056,10 +2179,10 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
@@ -2084,7 +2207,7 @@
       <c r="BU4" s="4"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BX4" s="9" t="b">
         <v>1</v>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38610EB2-E939-44C6-8DF2-04A181C8897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788E152D-CDC3-49E4-8D9A-6AE59C1F842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="430" windowWidth="12200" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="3" r:id="rId3"/>
+    <sheet name="ID" sheetId="4" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="223">
   <si>
     <t>User</t>
   </si>
@@ -731,13 +732,7 @@
     <t>犬</t>
   </si>
   <si>
-    <t>產生編號</t>
-  </si>
-  <si>
     <t>報表編號</t>
-  </si>
-  <si>
-    <t>需手動將產生編號移過來</t>
   </si>
   <si>
     <t>REPORT_ID</t>
@@ -750,9 +745,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -809,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -841,12 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,7 +1166,7 @@
   <dimension ref="A1:CA4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2095,751 +2081,776 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CC7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD22159-04E1-4577-9D6B-D958FB22AF9C}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:CA4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:79" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="AA1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="AC1" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="AL1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="AN1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AV1" s="4"/>
       <c r="AW1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX1" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="AY1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BL1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BQ1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BR1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BU1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="BV1" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="BW1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY1" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="BX1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BZ1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="CA1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="CB1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:81" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="9" t="s">
-        <v>222</v>
-      </c>
+    <row r="2" spans="1:79" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="R2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BU2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BY2" s="4"/>
       <c r="BZ2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="CC2" s="4"/>
+      <c r="CA2" s="4"/>
     </row>
-    <row r="3" spans="1:81" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:79" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>129</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AV3" s="4"/>
       <c r="AW3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX3" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="AY3" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BQ3" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BR3" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BS3" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BT3" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BU3" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BV3" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BW3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY3" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="BX3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY3" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="BZ3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="CA3" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="CB3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CA3" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:81" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="10">
+    <row r="4" spans="1:79" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="4">
         <v>1016</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="J4" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="4">
+      <c r="L4" s="4">
         <v>12345</v>
       </c>
-      <c r="O4" s="4">
+      <c r="M4" s="4">
         <v>54321</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="W4" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -2890,18 +2901,10 @@
       <c r="BU4" s="4"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
       <c r="BZ4" s="9"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-      <c r="CC4" s="4"/>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A7"/>
+      <c r="CA4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788E152D-CDC3-49E4-8D9A-6AE59C1F842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA1FAC-DB2A-4123-94F1-9D79145C295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="ID" sheetId="4" r:id="rId3"/>
-    <sheet name="update" sheetId="3" r:id="rId4"/>
+    <sheet name="update" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="221">
   <si>
     <t>User</t>
   </si>
@@ -732,13 +731,7 @@
     <t>犬</t>
   </si>
   <si>
-    <t>報表編號</t>
-  </si>
-  <si>
-    <t>REPORT_ID</t>
-  </si>
-  <si>
-    <t>糞便中帶血絲,其他症狀</t>
+    <t>學生</t>
   </si>
 </sst>
 </file>
@@ -2081,56 +2074,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD22159-04E1-4577-9D6B-D958FB22AF9C}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CA4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="4" width="8.796875" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2806,39 +2760,21 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>201</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M4" s="4">
-        <v>54321</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2846,11 +2782,11 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA1FAC-DB2A-4123-94F1-9D79145C295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64CB57-93B3-421E-A179-859425FA2FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="220" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="4" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="226">
   <si>
     <t>User</t>
   </si>
@@ -731,7 +731,25 @@
     <t>犬</t>
   </si>
   <si>
+    <t>檢驗資料選3
+未填表格資料</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>有症狀
+未填主要症狀資料</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
     <t>學生</t>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1156,10 +1174,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CA4"/>
+  <dimension ref="A1:CA6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1905,7 +1923,7 @@
         <v>202</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>204</v>
@@ -2066,6 +2084,318 @@
       </c>
       <c r="CA4" s="4"/>
     </row>
+    <row r="5" spans="1:79" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="4">
+        <v>54321</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>-30</v>
+      </c>
+      <c r="S5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>-25</v>
+      </c>
+      <c r="U5" s="4">
+        <v>-25</v>
+      </c>
+      <c r="V5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>-28</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>-26</v>
+      </c>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>-24</v>
+      </c>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA5" s="4"/>
+    </row>
+    <row r="6" spans="1:79" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M6" s="4">
+        <v>54321</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <v>-30</v>
+      </c>
+      <c r="S6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-25</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-25</v>
+      </c>
+      <c r="V6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>-28</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>-26</v>
+      </c>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="4">
+        <v>-24</v>
+      </c>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA6" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2074,17 +2404,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.796875" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="6" width="8.796875" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2785,7 +3115,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64CB57-93B3-421E-A179-859425FA2FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611293EC-9544-43E6-A482-B72FF274DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="220" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="232">
   <si>
     <t>User</t>
   </si>
@@ -751,12 +751,35 @@
     <t>阿米巴性痢疾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值設定須為文字/ True 或 False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +801,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -812,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -844,6 +874,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,12 +1164,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1174,74 +1207,75 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CA6"/>
+  <dimension ref="A1:CB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.796875" customWidth="1"/>
-    <col min="19" max="19" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="36" width="30.8984375" customWidth="1"/>
-    <col min="37" max="37" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.3984375" customWidth="1"/>
-    <col min="40" max="40" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.3984375" customWidth="1"/>
-    <col min="43" max="43" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.09765625" customWidth="1"/>
-    <col min="46" max="46" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.296875" customWidth="1"/>
-    <col min="49" max="49" width="26" bestFit="1" customWidth="1"/>
-    <col min="50" max="55" width="26" customWidth="1"/>
-    <col min="56" max="57" width="9.59765625" customWidth="1"/>
-    <col min="58" max="58" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="22.19921875" customWidth="1"/>
-    <col min="65" max="65" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="22.19921875" customWidth="1"/>
-    <col min="69" max="69" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="32.59765625" customWidth="1"/>
-    <col min="72" max="72" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="31" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="32.3984375" customWidth="1"/>
-    <col min="79" max="79" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.796875" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="37" width="30.8984375" customWidth="1"/>
+    <col min="38" max="38" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.3984375" customWidth="1"/>
+    <col min="41" max="41" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.3984375" customWidth="1"/>
+    <col min="44" max="44" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.09765625" customWidth="1"/>
+    <col min="47" max="47" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.296875" customWidth="1"/>
+    <col min="50" max="50" width="26" bestFit="1" customWidth="1"/>
+    <col min="51" max="56" width="26" customWidth="1"/>
+    <col min="57" max="58" width="9.59765625" customWidth="1"/>
+    <col min="59" max="59" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="22.19921875" customWidth="1"/>
+    <col min="66" max="66" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="22.19921875" customWidth="1"/>
+    <col min="70" max="70" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="32.59765625" customWidth="1"/>
+    <col min="73" max="73" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="31" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="32.3984375" customWidth="1"/>
+    <col min="80" max="80" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" ht="43.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -1251,245 +1285,250 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1497,178 +1536,179 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="AP2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="AR2" s="4" t="s">
         <v>104</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="4"/>
+      <c r="AV2" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BD2" s="4"/>
       <c r="BE2" s="4"/>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="BL2" s="4" t="s">
         <v>114</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BN2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="BO2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="BS2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="BT2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4" t="s">
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="9" t="s">
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BY2" s="9" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="CA2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
     </row>
-    <row r="3" spans="1:79" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>123</v>
       </c>
@@ -1678,234 +1718,237 @@
       <c r="C3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BX3" s="9" t="s">
+      <c r="BY3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="BY3" s="9" t="s">
+      <c r="BZ3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="BZ3" s="9" t="s">
+      <c r="CA3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:79" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" ht="48.5" customHeight="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1915,152 +1958,154 @@
       <c r="C4" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>12345</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>54321</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P4" s="4" t="b">
+      <c r="Q4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
         <v>-30</v>
       </c>
-      <c r="S4" s="4" t="b">
+      <c r="T4" s="4" t="b">
         <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>-25</v>
       </c>
       <c r="U4" s="4">
         <v>-25</v>
       </c>
-      <c r="V4" s="4" t="b">
+      <c r="V4" s="4">
+        <v>-25</v>
+      </c>
+      <c r="W4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AC4" s="4">
         <v>100</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AD4" s="4">
         <v>-10</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AF4" s="4">
         <v>50</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AG4" s="4">
         <v>-10</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AI4" s="4">
         <v>30</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="AJ4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AK4" s="4" t="b">
+      <c r="AK4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AM4" s="4">
         <v>3</v>
       </c>
-      <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="4" t="s">
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AU4" s="4">
         <v>-28</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AV4" s="4">
         <v>-26</v>
       </c>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4" t="s">
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AY4" s="4">
         <v>1</v>
       </c>
-      <c r="AY4" s="4" t="b">
+      <c r="AZ4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
-      <c r="BD4" s="4" t="s">
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BF4" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
-      <c r="BI4" s="4">
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4">
         <v>3</v>
       </c>
-      <c r="BJ4" s="4">
+      <c r="BK4" s="4">
         <v>-24</v>
       </c>
-      <c r="BK4" s="4"/>
       <c r="BL4" s="4"/>
       <c r="BM4" s="4"/>
       <c r="BN4" s="4"/>
@@ -2073,18 +2118,19 @@
       <c r="BU4" s="4"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4"/>
-      <c r="BX4" s="9" t="s">
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BY4" s="9" t="b">
+      <c r="BZ4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="BZ4" s="9" t="s">
+      <c r="CA4" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:79" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" s="10" customFormat="1" ht="29" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2094,71 +2140,73 @@
       <c r="C5" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>12345</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>54321</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P5" s="4" t="b">
+      <c r="Q5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
         <v>-30</v>
       </c>
-      <c r="S5" s="4" t="b">
+      <c r="T5" s="4" t="b">
         <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>-25</v>
       </c>
       <c r="U5" s="4">
         <v>-25</v>
       </c>
-      <c r="V5" s="4" t="b">
+      <c r="V5" s="4">
+        <v>-25</v>
+      </c>
+      <c r="W5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2168,57 +2216,57 @@
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
-      <c r="AK5" s="4" t="b">
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AM5" s="4">
         <v>3</v>
       </c>
-      <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
-      <c r="AS5" s="4" t="s">
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AU5" s="4">
         <v>-28</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AV5" s="4">
         <v>-26</v>
       </c>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4" t="s">
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AY5" s="4">
         <v>1</v>
       </c>
-      <c r="AY5" s="4" t="b">
+      <c r="AZ5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="4" t="s">
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="BE5" s="4" t="s">
+      <c r="BF5" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
-      <c r="BI5" s="4">
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4">
         <v>3</v>
       </c>
-      <c r="BJ5" s="4">
+      <c r="BK5" s="4">
         <v>-24</v>
       </c>
-      <c r="BK5" s="4"/>
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
       <c r="BN5" s="4"/>
@@ -2231,18 +2279,19 @@
       <c r="BU5" s="4"/>
       <c r="BV5" s="4"/>
       <c r="BW5" s="4"/>
-      <c r="BX5" s="9" t="s">
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BY5" s="9" t="b">
+      <c r="BZ5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="BZ5" s="9" t="s">
+      <c r="CA5" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
     </row>
-    <row r="6" spans="1:79" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" s="10" customFormat="1" ht="43.5" customHeight="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -2252,67 +2301,69 @@
       <c r="C6" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>12345</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>54321</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P6" s="4" t="b">
+      <c r="Q6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
         <v>-30</v>
       </c>
-      <c r="S6" s="4" t="b">
+      <c r="T6" s="4" t="b">
         <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>-25</v>
       </c>
       <c r="U6" s="4">
         <v>-25</v>
       </c>
-      <c r="V6" s="4" t="b">
+      <c r="V6" s="4">
+        <v>-25</v>
+      </c>
+      <c r="W6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -2322,57 +2373,57 @@
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
-      <c r="AK6" s="4" t="b">
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AM6" s="4">
         <v>3</v>
       </c>
-      <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
-      <c r="AS6" s="4" t="s">
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AU6" s="4">
         <v>-28</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AV6" s="4">
         <v>-26</v>
       </c>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4" t="s">
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AY6" s="4">
         <v>1</v>
       </c>
-      <c r="AY6" s="4" t="b">
+      <c r="AZ6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
-      <c r="BD6" s="4" t="s">
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="BE6" s="4" t="s">
+      <c r="BF6" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
-      <c r="BI6" s="4">
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4">
         <v>3</v>
       </c>
-      <c r="BJ6" s="4">
+      <c r="BK6" s="4">
         <v>-24</v>
       </c>
-      <c r="BK6" s="4"/>
       <c r="BL6" s="4"/>
       <c r="BM6" s="4"/>
       <c r="BN6" s="4"/>
@@ -2385,16 +2436,17 @@
       <c r="BU6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
-      <c r="BX6" s="9" t="s">
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BY6" s="9" t="b">
+      <c r="BZ6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="BZ6" s="9" t="s">
+      <c r="CA6" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2405,269 +2457,276 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CA4"/>
+  <dimension ref="A1:CB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="6" width="8.796875" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="3" width="8.796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.796875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" ht="43.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" s="9" customFormat="1" ht="33" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2675,178 +2734,179 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="AP2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="AR2" s="4" t="s">
         <v>104</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="4"/>
+      <c r="AV2" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BD2" s="4"/>
       <c r="BE2" s="4"/>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="BL2" s="4" t="s">
         <v>114</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BN2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="BO2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="BS2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="BT2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4" t="s">
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="9" t="s">
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BY2" s="9" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="CA2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
     </row>
-    <row r="3" spans="1:79" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" ht="53" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>123</v>
       </c>
@@ -2856,234 +2916,237 @@
       <c r="C3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BX3" s="9" t="s">
+      <c r="BY3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="BY3" s="9" t="s">
+      <c r="BZ3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="BZ3" s="9" t="s">
+      <c r="CA3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:79" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" ht="48.5" customHeight="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -3091,12 +3154,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="D4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="4">
         <v>1018</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3114,10 +3179,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -3167,10 +3232,11 @@
       <c r="BU4" s="4"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4"/>
-      <c r="BX4" s="9"/>
+      <c r="BX4" s="4"/>
       <c r="BY4" s="9"/>
       <c r="BZ4" s="9"/>
-      <c r="CA4" s="4"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB17F19-2F15-4256-8057-DC675FD837FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F3446-17C5-4A2E-8D73-2A323E4F28BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
+    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" activeTab="1" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -3090,7 +3090,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 Y4 V4 AO4 BY4 BB4 BG4" xr:uid="{33351A31-F68C-4F45-9FA4-6C7687FE246E}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -3115,11 +3115,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4" xr:uid="{EB9EE575-908D-45D3-BA25-0A3EF33B9DB9}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{6D91B300-7EFC-45C6-9B4B-DC290C166CFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{6D91B300-7EFC-45C6-9B4B-DC290C166CFB}">
       <formula1>INDIRECT(O4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{1C5A4246-C1A8-4AA1-97D4-13641277ABF2}">
-      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3193,7 +3190,7 @@
   <dimension ref="A1:CA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3971,7 +3968,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4" xr:uid="{45496B9F-DA3E-41D9-8C64-908113E183FD}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
@@ -3996,10 +3993,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 Y4 V4 AO4 BY4 BB4 BG4" xr:uid="{F7E99DC7-35F0-4865-9F2A-135B7A4546E8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{EA085B25-9487-4A05-8A0B-F8C9C96D88D4}">
-      <formula1>INDIRECT(P4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{7C794448-ADEF-4F52-A1A1-4903D300E2A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{EA085B25-9487-4A05-8A0B-F8C9C96D88D4}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F3446-17C5-4A2E-8D73-2A323E4F28BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5C7ED-7A64-4C65-A612-7E20C9FC689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" activeTab="1" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
+    <workbookView xWindow="7860" yWindow="450" windowWidth="9350" windowHeight="9420" activeTab="1" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -89,6 +89,8 @@
   <authors>
     <author>tc={5A6F41A2-AD30-4616-84FD-2935C971D5F5}</author>
     <author>tc={4EB14A64-239F-4634-98B1-403433171077}</author>
+    <author>tc={DF8DA120-666B-44EB-B612-172D6EA25325}</author>
+    <author>tc={C92D120B-4301-4151-91BA-0EE206BA1197}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{5A6F41A2-AD30-4616-84FD-2935C971D5F5}">
@@ -107,6 +109,22 @@
     曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{DF8DA120-666B-44EB-B612-172D6EA25325}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BX5" authorId="3" shapeId="0" xr:uid="{C92D120B-4301-4151-91BA-0EE206BA1197}">
+      <text>
+        <t xml:space="preserve">[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -116,6 +134,8 @@
   <authors>
     <author>tc={CC604773-0336-4EB3-8916-F6AA28277437}</author>
     <author>tc={650DA3C6-9265-4E04-9BCE-DD4F7594760F}</author>
+    <author>tc={8C7435E0-532F-42C5-817E-1DD71A4D77F1}</author>
+    <author>tc={5B1E7BF5-6556-4B98-862F-A3529FB6F352}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{CC604773-0336-4EB3-8916-F6AA28277437}">
@@ -134,12 +154,28 @@
     曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{8C7435E0-532F-42C5-817E-1DD71A4D77F1}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BX5" authorId="3" shapeId="0" xr:uid="{5B1E7BF5-6556-4B98-862F-A3529FB6F352}">
+      <text>
+        <t xml:space="preserve">[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="500">
   <si>
     <t>User</t>
   </si>
@@ -498,9 +534,6 @@
     <t>ENTRY_DATE</t>
   </si>
   <si>
-    <t>全測試</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -536,9 +569,6 @@
   </si>
   <si>
     <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>SGP 新加坡</t>
   </si>
   <si>
     <t>學生</t>
@@ -1508,13 +1538,7 @@
   </si>
   <si>
     <t>六甲區</t>
-  </si>
-  <si>
-    <t>六甲區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王爺里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王爺里</t>
@@ -1668,6 +1692,160 @@
   </si>
   <si>
     <t>診所</t>
+  </si>
+  <si>
+    <t>黃色: 必填項目
+橙色: 由衛生局審核項目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林內鄉</t>
+  </si>
+  <si>
+    <t>林北村</t>
+  </si>
+  <si>
+    <t>民國63/08/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富里鄉</t>
+  </si>
+  <si>
+    <t>明里村</t>
+  </si>
+  <si>
+    <t>2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填寫1~5/不填寫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填寫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改必填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改衛生局審核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名測試</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國80/06/01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美濃區</t>
+  </si>
+  <si>
+    <t>東門里</t>
+  </si>
+  <si>
+    <t>複選1~5 
+若report有選 這裡會變取消
+以 , 分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登革熱</t>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案)</t>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>淋病</t>
+  </si>
+  <si>
+    <t>鉤端螺旋體病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴重特殊傳染性肺炎(併發症)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>鼠疫</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>退伍軍人病</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>霍亂</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1898,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,6 +1914,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,49 +1953,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1837,9 +2028,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1877,7 +2068,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1983,7 +2174,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2125,7 +2316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2139,6 +2330,12 @@
   <threadedComment ref="BX4" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{4EB14A64-239F-4634-98B1-403433171077}">
     <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
   </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{DF8DA120-666B-44EB-B612-172D6EA25325}">
+    <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BX5" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{C92D120B-4301-4151-91BA-0EE206BA1197}">
+    <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2148,6 +2345,12 @@
     <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
   </threadedComment>
   <threadedComment ref="BX4" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{650DA3C6-9265-4E04-9BCE-DD4F7594760F}">
+    <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
+  </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{8C7435E0-532F-42C5-817E-1DD71A4D77F1}">
+    <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BX5" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{5B1E7BF5-6556-4B98-862F-A3529FB6F352}">
     <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
   </threadedComment>
 </ThreadedComments>
@@ -2204,10 +2407,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B3F68A-57B0-48A8-BB06-DF127A355106}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:CA4"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2217,905 +2420,1033 @@
     <col min="62" max="62" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="43.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:79" s="12" customFormat="1" ht="43.5">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="BH1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="BI1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW1" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" s="12" customFormat="1" ht="63" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="CA2" s="4"/>
+    </row>
+    <row r="3" spans="1:79" s="12" customFormat="1" ht="68">
+      <c r="A3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" s="12" customFormat="1" ht="68">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="4">
+        <v>54321</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>-20</v>
+      </c>
+      <c r="U4" s="4">
+        <v>-30</v>
+      </c>
+      <c r="V4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>-25</v>
+      </c>
+      <c r="X4" s="4">
+        <v>-25</v>
+      </c>
+      <c r="Y4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>50</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" s="4">
         <v>30</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="AM4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>-30</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>-30</v>
+      </c>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="BG4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>7</v>
+      </c>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4">
+        <v>2</v>
+      </c>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="BU4" s="4">
+        <v>-5</v>
+      </c>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="CA4" s="4"/>
     </row>
-    <row r="2" spans="1:79" ht="63" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="BY2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BZ2" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="CA2" s="3"/>
-    </row>
-    <row r="3" spans="1:79" ht="68">
-      <c r="A3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="BX3" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY3" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="BZ3" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" ht="68">
-      <c r="A4" s="9">
+    <row r="5" spans="1:79" s="12" customFormat="1" ht="29">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="M5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="N5" s="4">
+        <v>54321</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="3">
-        <v>12345</v>
-      </c>
-      <c r="N4" s="3">
-        <v>54321</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="b">
+      <c r="W5" s="4">
+        <v>-20</v>
+      </c>
+      <c r="X5" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Y5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3">
-        <v>-30</v>
-      </c>
-      <c r="V4" s="3" t="b">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="3">
-        <v>-25</v>
-      </c>
-      <c r="X4" s="3">
-        <v>-25</v>
-      </c>
-      <c r="Y4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>-10</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>50</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>-10</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>-28</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>-26</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="BE4" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="BG4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>7</v>
-      </c>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3">
-        <v>2</v>
-      </c>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BT4" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="BU4" s="3">
-        <v>-5</v>
-      </c>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="BY4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="CA4" s="3"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 Y4 V4 AO4 BY4 BB4 BG4" xr:uid="{33351A31-F68C-4F45-9FA4-6C7687FE246E}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 Y4:Y5 V4:V5 AO4:AO5 BY4:BY5 BB4:BB5 BG4:BG5" xr:uid="{33351A31-F68C-4F45-9FA4-6C7687FE246E}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{9048F36C-649C-4C22-B402-00FE021954B0}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{98D1C3BB-586F-48A1-91DE-741C3A12764F}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{6DEDE2EF-EBBE-4A9A-8141-F9986C409425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{6DEDE2EF-EBBE-4A9A-8141-F9986C409425}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{A7807753-54AF-407E-9E35-E85034E9DBF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{A7807753-54AF-407E-9E35-E85034E9DBF9}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4 BA4" xr:uid="{54F0AB93-4361-4E0B-8F3F-80726A17A27E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AP5 BA4:BA5" xr:uid="{54F0AB93-4361-4E0B-8F3F-80726A17A27E}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ4" xr:uid="{CADBC8F9-9D6A-4582-90BB-7D805F9E717D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ4:BQ5" xr:uid="{CADBC8F9-9D6A-4582-90BB-7D805F9E717D}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4" xr:uid="{EB9EE575-908D-45D3-BA25-0A3EF33B9DB9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4:BJ5" xr:uid="{EB9EE575-908D-45D3-BA25-0A3EF33B9DB9}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{6D91B300-7EFC-45C6-9B4B-DC290C166CFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{6D91B300-7EFC-45C6-9B4B-DC290C166CFB}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3123,60 +3454,72 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECFA910D-589C-4F43-8904-06636A2A010B}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4</xm:sqref>
+          <xm:sqref>AB4:AB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EC2D89D-9EAD-4E31-93FE-4EC52B0EF92A}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>AT4 AW4</xm:sqref>
+          <xm:sqref>AT4:AT5 AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55DDBA3E-E2CD-4787-9559-FD8F64F82845}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ4 O4 BS4</xm:sqref>
+          <xm:sqref>AQ4:AQ5 O4:O5 BS4:BS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F3D7149-0C51-402A-82AC-6510E8E10165}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BZ4</xm:sqref>
+          <xm:sqref>BZ4:BZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6D4F91C-EA91-47D8-814A-086110B0031C}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4</xm:sqref>
+          <xm:sqref>BC4:BC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6748B002-F967-464F-9914-E87D11F1840E}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BE4</xm:sqref>
+          <xm:sqref>BE4:BE5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CEB8617-28A3-42CB-B751-6175807ADC52}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4</xm:sqref>
+          <xm:sqref>BH4:BH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F2C7841-A6AE-490E-B2CC-4AECB7B9C685}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BI4</xm:sqref>
+          <xm:sqref>BI4:BI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{789B4DBF-5188-492B-A58C-52B7B1592610}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4</xm:sqref>
+          <xm:sqref>BT4:BT5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{431BBA7A-3F83-414B-930A-9B69BBEFFB91}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C4E3786-AAB4-4ED3-B06B-B866E7F211FA}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3187,813 +3530,918 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742FE2-1BDD-4824-A964-70C3FB1B0692}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:CA4"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="43.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:79" s="12" customFormat="1" ht="43.5">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="BH1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="BI1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW1" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="CA1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:79" s="12" customFormat="1" ht="77" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="BB2" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>268</v>
       </c>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="CA2" s="4"/>
     </row>
-    <row r="2" spans="1:79" ht="56" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="BN2" s="3" t="s">
+    <row r="3" spans="1:79" s="12" customFormat="1" ht="68">
+      <c r="A3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="BO2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BA3" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="BY2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BZ2" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="CA2" s="3"/>
+      <c r="BB3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" ht="68">
-      <c r="A3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="BX3" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="BY3" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="BZ3" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>307</v>
-      </c>
+    <row r="4" spans="1:79" s="12" customFormat="1">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="4"/>
     </row>
-    <row r="4" spans="1:79" ht="29">
-      <c r="A4" s="9">
+    <row r="5" spans="1:79" s="12" customFormat="1" ht="34">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1121</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3">
+      <c r="AP5" s="4">
         <v>2</v>
       </c>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="10"/>
-      <c r="BY4" s="10"/>
-      <c r="BZ4" s="10"/>
-      <c r="CA4" s="3"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>-40</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>-40</v>
+      </c>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4" xr:uid="{45496B9F-DA3E-41D9-8C64-908113E183FD}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4:BJ5" xr:uid="{45496B9F-DA3E-41D9-8C64-908113E183FD}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ4" xr:uid="{66DFA7BF-1B1D-4B3F-AC4C-B35DF041426F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ4:BQ5" xr:uid="{66DFA7BF-1B1D-4B3F-AC4C-B35DF041426F}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4 BA4" xr:uid="{03BDF64A-21CD-4323-9CAE-6687A8B7C35B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AP5 BA4:BA5" xr:uid="{03BDF64A-21CD-4323-9CAE-6687A8B7C35B}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{74BC9E00-6BA9-4237-AF32-6F8255B0D405}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{74BC9E00-6BA9-4237-AF32-6F8255B0D405}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{6F147A71-FAB9-43D7-82AB-5DFD3A8C6BD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{6F147A71-FAB9-43D7-82AB-5DFD3A8C6BD9}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{C2DF8B44-F9E5-43DD-9935-A2D67C954080}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{DFA990F3-CC78-426F-AFEB-FFE8D23EDB9D}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 Y4 V4 AO4 BY4 BB4 BG4" xr:uid="{F7E99DC7-35F0-4865-9F2A-135B7A4546E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 Y4:Y5 V4:V5 AO4:AO5 BY4:BY5 BB4:BB5 BG4:BG5" xr:uid="{F7E99DC7-35F0-4865-9F2A-135B7A4546E8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{EA085B25-9487-4A05-8A0B-F8C9C96D88D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{EA085B25-9487-4A05-8A0B-F8C9C96D88D4}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4001,60 +4449,72 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB527530-13AC-4478-BD43-CD6A55BF16F5}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4</xm:sqref>
+          <xm:sqref>BC4:BC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A4300C3-F843-45E0-AB38-A10CC3EE40D7}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BZ4</xm:sqref>
+          <xm:sqref>BZ4:BZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04180F46-F351-4ECF-8EA6-06D0AE749CA5}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ4 O4 BS4</xm:sqref>
+          <xm:sqref>AQ4:AQ5 O4:O5 BS4:BS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4E2623E-9CD6-4136-8166-B741021C6BD2}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>AT4 AW4</xm:sqref>
+          <xm:sqref>AT4:AT5 AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A642ED1-1A24-4A25-AF14-F1161F95B842}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4:AC4</xm:sqref>
+          <xm:sqref>AB4:AC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E26BD127-5D54-4ACD-BA04-893D4722C312}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4</xm:sqref>
+          <xm:sqref>BT4:BT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{542869CD-C458-4FA9-9EB9-5168919CC796}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BI4</xm:sqref>
+          <xm:sqref>BI4:BI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E5A8F77-96A3-494A-A86A-88BA19657AE4}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4</xm:sqref>
+          <xm:sqref>BH4:BH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{725F3DB6-CC06-4D93-B797-FE7A7163EF9C}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BE4</xm:sqref>
+          <xm:sqref>BE4:BE5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47E99CE7-88FB-4292-BE1E-6C89743BC378}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{313AD9A2-2A2B-4ECE-B494-4B24EF6FFB04}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4065,10 +4525,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48994D01-5933-4E1D-817D-F539894F3C69}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4089,873 +4549,947 @@
     <col min="14" max="14" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="1"/>
+    <col min="19" max="19" width="31.36328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="16"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D2" t="s">
         <v>411</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
         <v>220</v>
       </c>
-      <c r="G1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L1" t="s">
-        <v>318</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>324</v>
+      <c r="G3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" t="s">
         <v>188</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>221</v>
       </c>
-      <c r="G2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>335</v>
+      <c r="G4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="C3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" t="s">
         <v>189</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>222</v>
       </c>
-      <c r="G3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="G5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>346</v>
+      <c r="Q7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>356</v>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" t="s">
-        <v>357</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>368</v>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="T9" s="16">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" t="s">
-        <v>423</v>
-      </c>
-      <c r="E6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" t="s">
-        <v>369</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="K6" s="1" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>375</v>
+      <c r="S10" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>375</v>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>383</v>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" t="s">
+        <v>431</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" t="s">
-        <v>429</v>
-      </c>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>387</v>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>375</v>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>390</v>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D12" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D13" t="s">
-        <v>437</v>
-      </c>
-      <c r="E13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
         <v>144</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>178</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>438</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>439</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>200</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>233</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>440</v>
-      </c>
-      <c r="D15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" t="s">
-        <v>442</v>
-      </c>
-      <c r="D16" t="s">
-        <v>443</v>
-      </c>
-      <c r="E16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D21" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D22" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F27"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F29"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F30"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F32"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F33"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F34"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -4965,7 +5499,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5C7ED-7A64-4C65-A612-7E20C9FC689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAC954-E0DF-4987-9D34-DB93D884606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="450" windowWidth="9350" windowHeight="9420" activeTab="1" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
     <sheet name="update" sheetId="3" r:id="rId3"/>
-    <sheet name="清單" sheetId="4" r:id="rId4"/>
+    <sheet name="determine" sheetId="5" r:id="rId4"/>
+    <sheet name="清單" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="二林鎮">清單!$D$11</definedName>
@@ -91,9 +92,13 @@
     <author>tc={4EB14A64-239F-4634-98B1-403433171077}</author>
     <author>tc={DF8DA120-666B-44EB-B612-172D6EA25325}</author>
     <author>tc={C92D120B-4301-4151-91BA-0EE206BA1197}</author>
+    <author>tc={CBDA9F3B-170C-4481-AC47-2AAC37A988FE}</author>
+    <author>tc={0A606C90-E8A3-43AC-9EDB-A4EF341E014B}</author>
+    <author>tc={C41B9570-56FE-40FB-9122-8467CC06F29F}</author>
+    <author>tc={2BDAE073-B5B1-41B2-9B11-28FE1C4B5CE8}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{5A6F41A2-AD30-4616-84FD-2935C971D5F5}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{5A6F41A2-AD30-4616-84FD-2935C971D5F5}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -101,7 +106,7 @@
     發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BX4" authorId="1" shapeId="0" xr:uid="{4EB14A64-239F-4634-98B1-403433171077}">
+    <comment ref="BY4" authorId="1" shapeId="0" xr:uid="{4EB14A64-239F-4634-98B1-403433171077}">
       <text>
         <t xml:space="preserve">[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -109,7 +114,7 @@
     曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{DF8DA120-666B-44EB-B612-172D6EA25325}">
+    <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{DF8DA120-666B-44EB-B612-172D6EA25325}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -117,7 +122,39 @@
     發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BX5" authorId="3" shapeId="0" xr:uid="{C92D120B-4301-4151-91BA-0EE206BA1197}">
+    <comment ref="BY5" authorId="3" shapeId="0" xr:uid="{C92D120B-4301-4151-91BA-0EE206BA1197}">
+      <text>
+        <t xml:space="preserve">[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="4" shapeId="0" xr:uid="{CBDA9F3B-170C-4481-AC47-2AAC37A988FE}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BY6" authorId="5" shapeId="0" xr:uid="{0A606C90-E8A3-43AC-9EDB-A4EF341E014B}">
+      <text>
+        <t xml:space="preserve">[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
+      </text>
+    </comment>
+    <comment ref="AA7" authorId="6" shapeId="0" xr:uid="{C41B9570-56FE-40FB-9122-8467CC06F29F}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BY7" authorId="7" shapeId="0" xr:uid="{2BDAE073-B5B1-41B2-9B11-28FE1C4B5CE8}">
       <text>
         <t xml:space="preserve">[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -138,7 +175,7 @@
     <author>tc={5B1E7BF5-6556-4B98-862F-A3529FB6F352}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{CC604773-0336-4EB3-8916-F6AA28277437}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{CC604773-0336-4EB3-8916-F6AA28277437}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -146,7 +183,7 @@
     發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BX4" authorId="1" shapeId="0" xr:uid="{650DA3C6-9265-4E04-9BCE-DD4F7594760F}">
+    <comment ref="BY4" authorId="1" shapeId="0" xr:uid="{650DA3C6-9265-4E04-9BCE-DD4F7594760F}">
       <text>
         <t xml:space="preserve">[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -154,7 +191,7 @@
     曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{8C7435E0-532F-42C5-817E-1DD71A4D77F1}">
+    <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{8C7435E0-532F-42C5-817E-1DD71A4D77F1}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -162,7 +199,7 @@
     發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BX5" authorId="3" shapeId="0" xr:uid="{5B1E7BF5-6556-4B98-862F-A3529FB6F352}">
+    <comment ref="BY5" authorId="3" shapeId="0" xr:uid="{5B1E7BF5-6556-4B98-862F-A3529FB6F352}">
       <text>
         <t xml:space="preserve">[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -175,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="562">
   <si>
     <t>User</t>
   </si>
@@ -1847,12 +1884,245 @@
   <si>
     <t>霍亂</t>
   </si>
+  <si>
+    <t>疾病分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能病例</t>
+  </si>
+  <si>
+    <t>可能病例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極可能病例</t>
+  </si>
+  <si>
+    <t>確定病例</t>
+  </si>
+  <si>
+    <t>不符合疾病分類</t>
+  </si>
+  <si>
+    <t>感染來源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無需研判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本土病例</t>
+  </si>
+  <si>
+    <t>境外移入</t>
+  </si>
+  <si>
+    <t>經疫調後無法研判</t>
+  </si>
+  <si>
+    <t>特殊場域</t>
+  </si>
+  <si>
+    <t>JUDGE_CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>臺北區管制中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNKNOWN_AREA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUDGE_INFECTION_SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否研判感染地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壢區</t>
+  </si>
+  <si>
+    <t>仁愛里</t>
+  </si>
+  <si>
+    <t>本土病例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為 'OTH 其他' 需填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER_COUNTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染地區: False
+感染來源: 本土病例
+需填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染地區: False
+感染來源: 境外移入
+需填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE/FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅山鄉</t>
+  </si>
+  <si>
+    <t>太平村</t>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定病例/本土/非感染地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極可能病例/境外/非感染地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不符合疾病分類補充說明</t>
+  </si>
+  <si>
+    <t>不明</t>
+  </si>
+  <si>
+    <t>以前曾經感染或接種疫苗</t>
+  </si>
+  <si>
+    <t>疑似病例</t>
+  </si>
+  <si>
+    <t>已驗出其它病原</t>
+  </si>
+  <si>
+    <t>急性初期感染</t>
+  </si>
+  <si>
+    <t>不符合通報定義</t>
+  </si>
+  <si>
+    <t>原檢體複驗陰性</t>
+  </si>
+  <si>
+    <t>不符合疾病分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病分類: 不符合疾病分類
+需填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不符合疾病分類補充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補充說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不符合疾病分類補充: 其他
+需填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUDGE_UNCLASSFIED_OTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動死因相關性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUDGE_UNCLASSFIED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東引鄉</t>
+  </si>
+  <si>
+    <t>樂華村</t>
+  </si>
+  <si>
+    <t>個案死亡/境外/不符合分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1896,6 +2166,40 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1953,7 +2257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2004,6 +2308,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2028,9 +2378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2068,7 +2418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2174,7 +2524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2316,7 +2666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2324,16 +2674,28 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{5A6F41A2-AD30-4616-84FD-2935C971D5F5}">
+  <threadedComment ref="AA4" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{5A6F41A2-AD30-4616-84FD-2935C971D5F5}">
     <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BX4" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{4EB14A64-239F-4634-98B1-403433171077}">
+  <threadedComment ref="BY4" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{4EB14A64-239F-4634-98B1-403433171077}">
     <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{DF8DA120-666B-44EB-B612-172D6EA25325}">
+  <threadedComment ref="AA5" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{DF8DA120-666B-44EB-B612-172D6EA25325}">
     <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BX5" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{C92D120B-4301-4151-91BA-0EE206BA1197}">
+  <threadedComment ref="BY5" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{C92D120B-4301-4151-91BA-0EE206BA1197}">
+    <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
+  </threadedComment>
+  <threadedComment ref="AA6" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{CBDA9F3B-170C-4481-AC47-2AAC37A988FE}">
+    <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BY6" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{0A606C90-E8A3-43AC-9EDB-A4EF341E014B}">
+    <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
+  </threadedComment>
+  <threadedComment ref="AA7" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{C41B9570-56FE-40FB-9122-8467CC06F29F}">
+    <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BY7" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{2BDAE073-B5B1-41B2-9B11-28FE1C4B5CE8}">
     <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
   </threadedComment>
 </ThreadedComments>
@@ -2341,16 +2703,16 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{CC604773-0336-4EB3-8916-F6AA28277437}">
+  <threadedComment ref="AA4" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{CC604773-0336-4EB3-8916-F6AA28277437}">
     <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BX4" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{650DA3C6-9265-4E04-9BCE-DD4F7594760F}">
+  <threadedComment ref="BY4" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{650DA3C6-9265-4E04-9BCE-DD4F7594760F}">
     <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{8C7435E0-532F-42C5-817E-1DD71A4D77F1}">
+  <threadedComment ref="AA5" dT="2023-11-13T03:07:13.19" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{8C7435E0-532F-42C5-817E-1DD71A4D77F1}">
     <text>發燒,腹痛,腹瀉,嘔吐,黏液便,噁心,右上腹疼痛,裏急後重,慢性腹瀉,糞便中帶血絲,間歇性下痢,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BX5" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{5B1E7BF5-6556-4B98-862F-A3529FB6F352}">
+  <threadedComment ref="BY5" dT="2023-11-13T05:52:04.89" personId="{73D3C391-3E57-48D6-8035-1D2A0D4226F2}" id="{5B1E7BF5-6556-4B98-862F-A3529FB6F352}">
     <text xml:space="preserve">曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型 </text>
   </threadedComment>
 </ThreadedComments>
@@ -2359,10 +2721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C8A37-DF79-40DB-84BD-CDCF6565EDFC}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2398,6 +2760,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2407,274 +2783,278 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B3F68A-57B0-48A8-BB06-DF127A355106}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:CA5"/>
+  <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="42" max="42" width="14.54296875" customWidth="1"/>
-    <col min="54" max="54" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="25"/>
+    <col min="43" max="43" width="14.54296875" customWidth="1"/>
+    <col min="55" max="55" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="12" customFormat="1" ht="43.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:80" s="12" customFormat="1" ht="43.5">
+      <c r="A1" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BX1" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="12" customFormat="1" ht="63" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:80" s="12" customFormat="1" ht="63" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2684,696 +3064,705 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>403</v>
       </c>
       <c r="AT2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>405</v>
       </c>
       <c r="AW2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX2" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="BM2" s="4" t="s">
         <v>272</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BO2" s="4" t="s">
         <v>273</v>
       </c>
       <c r="BP2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="BT2" s="4" t="s">
         <v>398</v>
       </c>
       <c r="BU2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV2" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4" t="s">
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
     </row>
-    <row r="3" spans="1:79" s="12" customFormat="1" ht="68">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:80" s="12" customFormat="1" ht="68">
+      <c r="A3" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="12" customFormat="1" ht="68">
-      <c r="A4" s="15">
+    <row r="4" spans="1:80" s="12" customFormat="1" ht="68">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>12345</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>54321</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="b">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>-20</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>-30</v>
       </c>
-      <c r="V4" s="4" t="b">
+      <c r="W4" s="4" t="b">
         <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>-25</v>
       </c>
       <c r="X4" s="4">
         <v>-25</v>
       </c>
-      <c r="Y4" s="4" t="b">
+      <c r="Y4" s="4">
+        <v>-25</v>
+      </c>
+      <c r="Z4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AG4" s="4">
         <v>100</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AH4" s="4">
         <v>-10</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AJ4" s="4">
         <v>50</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AK4" s="4">
         <v>-10</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AM4" s="4">
         <v>30</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="AN4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO4" s="4" t="b">
+      <c r="AO4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AQ4" s="4">
         <v>2</v>
       </c>
-      <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
-      <c r="AT4" s="4" t="s">
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>-30</v>
       </c>
       <c r="AV4" s="4">
         <v>-30</v>
       </c>
-      <c r="AW4" s="4"/>
+      <c r="AW4" s="4">
+        <v>-30</v>
+      </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
-      <c r="AZ4" s="4" t="s">
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="BA4" s="4">
+      <c r="BB4" s="4">
         <v>1</v>
       </c>
-      <c r="BB4" s="4" t="b">
+      <c r="BC4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BE4" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="BE4" s="2" t="s">
+      <c r="BF4" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BG4" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="BG4" s="4" t="b">
+      <c r="BH4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BI4" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="BJ4" s="4">
+      <c r="BK4" s="4">
         <v>7</v>
       </c>
-      <c r="BK4" s="4"/>
       <c r="BL4" s="4"/>
       <c r="BM4" s="4"/>
       <c r="BN4" s="4"/>
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
-      <c r="BQ4" s="4">
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4">
         <v>2</v>
       </c>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4" t="s">
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BT4" s="4" t="s">
+      <c r="BU4" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="BU4" s="4">
+      <c r="BV4" s="4">
         <v>-5</v>
       </c>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="2" t="s">
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="BY4" s="2" t="b">
+      <c r="BZ4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="BZ4" s="2" t="s">
+      <c r="CA4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:79" s="12" customFormat="1" ht="29">
-      <c r="A5" s="15">
+    <row r="5" spans="1:80" s="12" customFormat="1" ht="43.5">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>12345</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>54321</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="b">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4" t="b">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="b">
         <v>1</v>
-      </c>
-      <c r="W5" s="4">
-        <v>-20</v>
       </c>
       <c r="X5" s="4">
         <v>-20</v>
       </c>
-      <c r="Y5" s="4" t="b">
+      <c r="Y5" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Z5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="s">
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -3381,13 +3770,13 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
-      <c r="AN5" s="4" t="s">
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO5" s="4" t="b">
+      <c r="AP5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
@@ -3402,8 +3791,8 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="2"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4"/>
@@ -3419,35 +3808,308 @@
       <c r="BS5" s="4"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="4"/>
-      <c r="BW5" s="4"/>
-      <c r="BX5" s="2"/>
+      <c r="BV5" s="4"/>
+      <c r="BX5" s="4"/>
       <c r="BY5" s="2"/>
       <c r="BZ5" s="2"/>
-      <c r="CA5" s="4"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="4"/>
+    </row>
+    <row r="6" spans="1:80" s="12" customFormat="1" ht="29">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="N6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="O6" s="4">
+        <v>54321</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Z6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="4"/>
+    </row>
+    <row r="7" spans="1:80" s="12" customFormat="1" ht="43.5">
+      <c r="A7" s="25">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="N7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="O7" s="4">
+        <v>54321</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Z7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 Y4:Y5 V4:V5 AO4:AO5 BY4:BY5 BB4:BB5 BG4:BG5" xr:uid="{33351A31-F68C-4F45-9FA4-6C7687FE246E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T7 Z4:Z7 W4:W7 AP4:AP7 BZ4:BZ7 BC4:BC7 BH4:BH7" xr:uid="{33351A31-F68C-4F45-9FA4-6C7687FE246E}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{6DEDE2EF-EBBE-4A9A-8141-F9986C409425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7" xr:uid="{6DEDE2EF-EBBE-4A9A-8141-F9986C409425}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{A7807753-54AF-407E-9E35-E85034E9DBF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{A7807753-54AF-407E-9E35-E85034E9DBF9}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AP5 BA4:BA5" xr:uid="{54F0AB93-4361-4E0B-8F3F-80726A17A27E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ4:AQ7 BB4:BB7" xr:uid="{54F0AB93-4361-4E0B-8F3F-80726A17A27E}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ4:BQ5" xr:uid="{CADBC8F9-9D6A-4582-90BB-7D805F9E717D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4:BR7" xr:uid="{CADBC8F9-9D6A-4582-90BB-7D805F9E717D}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4:BJ5" xr:uid="{EB9EE575-908D-45D3-BA25-0A3EF33B9DB9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK4:BK7" xr:uid="{EB9EE575-908D-45D3-BA25-0A3EF33B9DB9}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{6D91B300-7EFC-45C6-9B4B-DC290C166CFB}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R7" xr:uid="{6D91B300-7EFC-45C6-9B4B-DC290C166CFB}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3459,67 +4121,67 @@
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4:AB5</xm:sqref>
+          <xm:sqref>AC4:AC7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EC2D89D-9EAD-4E31-93FE-4EC52B0EF92A}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>AT4:AT5 AW4:AW5</xm:sqref>
+          <xm:sqref>AU4:AU7 AX4:AX7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55DDBA3E-E2CD-4787-9559-FD8F64F82845}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ4:AQ5 O4:O5 BS4:BS5</xm:sqref>
+          <xm:sqref>AR4:AR7 P4:P7 BT4:BT7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F3D7149-0C51-402A-82AC-6510E8E10165}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BZ4:BZ5</xm:sqref>
+          <xm:sqref>CA4:CA7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6D4F91C-EA91-47D8-814A-086110B0031C}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4:BC5</xm:sqref>
+          <xm:sqref>BD4:BD7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6748B002-F967-464F-9914-E87D11F1840E}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BE4:BE5</xm:sqref>
+          <xm:sqref>BF4:BF7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CEB8617-28A3-42CB-B751-6175807ADC52}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4:BH5</xm:sqref>
+          <xm:sqref>BI4:BI7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F2C7841-A6AE-490E-B2CC-4AECB7B9C685}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BI4:BI5</xm:sqref>
+          <xm:sqref>BJ4:BJ7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{789B4DBF-5188-492B-A58C-52B7B1592610}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4:BT5</xm:sqref>
+          <xm:sqref>BU4:BU7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{431BBA7A-3F83-414B-930A-9B69BBEFFB91}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C4E3786-AAB4-4ED3-B06B-B866E7F211FA}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3530,279 +4192,287 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742FE2-1BDD-4824-A964-70C3FB1B0692}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:CA5"/>
+  <dimension ref="A1:CB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="25"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="12" customFormat="1" ht="43.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:80" s="12" customFormat="1" ht="43.5">
+      <c r="A1" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BX1" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="12" customFormat="1" ht="77" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:80" s="12" customFormat="1" ht="77" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -3810,426 +4480,438 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>403</v>
       </c>
       <c r="AT2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>405</v>
       </c>
       <c r="AW2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX2" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="BM2" s="4" t="s">
         <v>272</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BO2" s="4" t="s">
         <v>273</v>
       </c>
       <c r="BP2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="BT2" s="4" t="s">
         <v>398</v>
       </c>
       <c r="BU2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV2" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4" t="s">
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
     </row>
-    <row r="3" spans="1:79" s="12" customFormat="1" ht="68">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:80" s="12" customFormat="1" ht="68">
+      <c r="A3" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="14" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="12" customFormat="1">
-      <c r="A4" s="15">
+    <row r="4" spans="1:80" s="12" customFormat="1">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="23">
+        <v>45328</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -4240,9 +4922,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -4251,14 +4931,14 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -4268,10 +4948,10 @@
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
-      <c r="AO4" s="4" t="b">
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
@@ -4286,8 +4966,8 @@
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="2"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
       <c r="BI4" s="4"/>
@@ -4305,47 +4985,53 @@
       <c r="BU4" s="4"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4"/>
-      <c r="BX4" s="2"/>
+      <c r="BX4" s="4"/>
       <c r="BY4" s="2"/>
       <c r="BZ4" s="2"/>
-      <c r="CA4" s="4"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:79" s="12" customFormat="1" ht="34">
-      <c r="A5" s="15">
+    <row r="5" spans="1:80" s="12" customFormat="1" ht="34">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="23">
+        <v>45328</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -4355,10 +5041,10 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -4370,25 +5056,25 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
-      <c r="AO5" s="4" t="b">
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AQ5" s="4">
         <v>2</v>
       </c>
-      <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
-      <c r="AT5" s="4" t="s">
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="AU5" s="4">
-        <v>-40</v>
       </c>
       <c r="AV5" s="4">
         <v>-40</v>
       </c>
-      <c r="AW5" s="4"/>
+      <c r="AW5" s="4">
+        <v>-40</v>
+      </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
@@ -4396,8 +5082,8 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="2"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4"/>
@@ -4415,34 +5101,35 @@
       <c r="BU5" s="4"/>
       <c r="BV5" s="4"/>
       <c r="BW5" s="4"/>
-      <c r="BX5" s="2"/>
+      <c r="BX5" s="4"/>
       <c r="BY5" s="2"/>
       <c r="BZ5" s="2"/>
-      <c r="CA5" s="4"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ4:BJ5" xr:uid="{45496B9F-DA3E-41D9-8C64-908113E183FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK4:BK5" xr:uid="{45496B9F-DA3E-41D9-8C64-908113E183FD}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ4:BQ5" xr:uid="{66DFA7BF-1B1D-4B3F-AC4C-B35DF041426F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR4:BR5" xr:uid="{66DFA7BF-1B1D-4B3F-AC4C-B35DF041426F}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AP5 BA4:BA5" xr:uid="{03BDF64A-21CD-4323-9CAE-6687A8B7C35B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ4:AQ5 BB4:BB5" xr:uid="{03BDF64A-21CD-4323-9CAE-6687A8B7C35B}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{74BC9E00-6BA9-4237-AF32-6F8255B0D405}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{74BC9E00-6BA9-4237-AF32-6F8255B0D405}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{6F147A71-FAB9-43D7-82AB-5DFD3A8C6BD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{6F147A71-FAB9-43D7-82AB-5DFD3A8C6BD9}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 Y4:Y5 V4:V5 AO4:AO5 BY4:BY5 BB4:BB5 BG4:BG5" xr:uid="{F7E99DC7-35F0-4865-9F2A-135B7A4546E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T5 Z4:Z5 W4:W5 AP4:AP5 BZ4:BZ5 BC4:BC5 BH4:BH5" xr:uid="{F7E99DC7-35F0-4865-9F2A-135B7A4546E8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{EA085B25-9487-4A05-8A0B-F8C9C96D88D4}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{EA085B25-9487-4A05-8A0B-F8C9C96D88D4}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4454,67 +5141,67 @@
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>BC4:BC5</xm:sqref>
+          <xm:sqref>BD4:BD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A4300C3-F843-45E0-AB38-A10CC3EE40D7}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BZ4:BZ5</xm:sqref>
+          <xm:sqref>CA4:CA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04180F46-F351-4ECF-8EA6-06D0AE749CA5}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ4:AQ5 O4:O5 BS4:BS5</xm:sqref>
+          <xm:sqref>AR4:AR5 P4:P5 BT4:BT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4E2623E-9CD6-4136-8166-B741021C6BD2}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>AT4:AT5 AW4:AW5</xm:sqref>
+          <xm:sqref>AU4:AU5 AX4:AX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A642ED1-1A24-4A25-AF14-F1161F95B842}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4:AC5</xm:sqref>
+          <xm:sqref>AC4:AD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E26BD127-5D54-4ACD-BA04-893D4722C312}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BT4:BT5</xm:sqref>
+          <xm:sqref>BU4:BU5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{542869CD-C458-4FA9-9EB9-5168919CC796}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BI4:BI5</xm:sqref>
+          <xm:sqref>BJ4:BJ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E5A8F77-96A3-494A-A86A-88BA19657AE4}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4:BH5</xm:sqref>
+          <xm:sqref>BI4:BI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{725F3DB6-CC06-4D93-B797-FE7A7163EF9C}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BE4:BE5</xm:sqref>
+          <xm:sqref>BF4:BF5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47E99CE7-88FB-4292-BE1E-6C89743BC378}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{313AD9A2-2A2B-4ECE-B494-4B24EF6FFB04}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4523,12 +5210,362 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68533DA2-8BA1-4D68-8825-A33908B34C34}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" customWidth="1"/>
+    <col min="12" max="12" width="20.453125" customWidth="1"/>
+    <col min="13" max="13" width="21.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="51">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29">
+      <c r="A3" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3</v>
+      </c>
+      <c r="D7" s="24">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{E3E5ABF6-2D28-4CAF-AC04-3CEF3EEA1034}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7" xr:uid="{D2A9F3CB-2595-4DDA-A365-10247C348AB2}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:M7" xr:uid="{C10BDB30-BE48-422A-970C-DC021E237457}">
+      <formula1>INDIRECT(K4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDC14C3A-6A3F-454B-A875-65FFCA2801AF}">
+          <x14:formula1>
+            <xm:f>清單!$U$2:$U$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{76A4430C-55B6-4828-85BD-003670EE2E8F}">
+          <x14:formula1>
+            <xm:f>清單!$V$2:$V$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4:I7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99CE8B90-A3E9-4AFD-B84A-E87D8642E4BC}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>K4:K7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{606A03B5-0B85-44E4-AB15-2E217123848A}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4:N7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1101EF2D-1325-4DF7-8EC7-8634051F4D0E}">
+          <x14:formula1>
+            <xm:f>清單!$W$2:$W$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48994D01-5933-4E1D-817D-F539894F3C69}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4551,10 +5588,13 @@
     <col min="18" max="18" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.36328125" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.7265625" style="16"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="21" max="21" width="15.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4615,8 +5655,17 @@
       <c r="T1" s="16" t="s">
         <v>478</v>
       </c>
+      <c r="U1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -4677,8 +5726,17 @@
       <c r="T2" s="16" t="s">
         <v>492</v>
       </c>
+      <c r="U2" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -4739,8 +5797,17 @@
       <c r="T3" s="16" t="s">
         <v>493</v>
       </c>
+      <c r="U3" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>544</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -4801,8 +5868,17 @@
       <c r="T4" s="16" t="s">
         <v>487</v>
       </c>
+      <c r="U4" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>545</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -4863,8 +5939,17 @@
       <c r="T5" s="16" t="s">
         <v>488</v>
       </c>
+      <c r="U5" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4916,8 +6001,14 @@
       <c r="T6" s="16" t="s">
         <v>489</v>
       </c>
+      <c r="V6" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -4966,8 +6057,11 @@
       <c r="T7" s="16" t="s">
         <v>490</v>
       </c>
+      <c r="W7" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -5007,8 +6101,11 @@
       <c r="T8" s="16" t="s">
         <v>491</v>
       </c>
+      <c r="W8" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -5045,8 +6142,11 @@
       <c r="T9" s="16">
         <v>100</v>
       </c>
+      <c r="W9" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -5080,8 +6180,11 @@
       <c r="T10" s="17" t="s">
         <v>494</v>
       </c>
+      <c r="W10" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -5109,8 +6212,11 @@
       <c r="T11" s="17" t="s">
         <v>496</v>
       </c>
+      <c r="W11" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -5139,7 +6245,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -5162,7 +6268,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -5185,7 +6291,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -5205,7 +6311,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>144</v>
       </c>

--- a/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_006_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAC954-E0DF-4987-9D34-DB93D884606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA601A2E-EE80-4E72-8AF1-CD5166C492E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
+    <workbookView xWindow="370" yWindow="600" windowWidth="14480" windowHeight="9500" activeTab="3" xr2:uid="{47877AFB-53FE-4D8E-BEAF-44742504F673}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -5214,7 +5214,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
